--- a/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T11:06:51+00:00</t>
+    <t>2024-03-15T13:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:27:56+00:00</t>
+    <t>2024-03-15T13:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-swagger/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:59:29+00:00</t>
+    <t>2024-03-15T17:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
